--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_133.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_133.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32513-d77294-Reviews-Comfort_Suites_Huntington_Beach-Huntington_Beach_California.html</t>
+  </si>
+  <si>
+    <t>357</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>370</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Orange-County-Hotels-Comfort-Suites-Huntington-Beach.h21467.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_133.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_133.xlsx
@@ -5659,7 +5659,7 @@
         <v>26225</v>
       </c>
       <c r="B2" t="n">
-        <v>131401</v>
+        <v>162165</v>
       </c>
       <c r="C2" t="s">
         <v>44</v>
@@ -5724,7 +5724,7 @@
         <v>26225</v>
       </c>
       <c r="B3" t="n">
-        <v>131402</v>
+        <v>162166</v>
       </c>
       <c r="C3" t="s">
         <v>58</v>
@@ -5793,7 +5793,7 @@
         <v>26225</v>
       </c>
       <c r="B4" t="n">
-        <v>131403</v>
+        <v>162167</v>
       </c>
       <c r="C4" t="s">
         <v>67</v>
@@ -5858,7 +5858,7 @@
         <v>26225</v>
       </c>
       <c r="B5" t="n">
-        <v>131404</v>
+        <v>162168</v>
       </c>
       <c r="C5" t="s">
         <v>76</v>
@@ -5929,7 +5929,7 @@
         <v>26225</v>
       </c>
       <c r="B6" t="n">
-        <v>131405</v>
+        <v>162169</v>
       </c>
       <c r="C6" t="s">
         <v>86</v>
@@ -5994,7 +5994,7 @@
         <v>26225</v>
       </c>
       <c r="B7" t="n">
-        <v>131406</v>
+        <v>162170</v>
       </c>
       <c r="C7" t="s">
         <v>94</v>
@@ -6055,7 +6055,7 @@
         <v>26225</v>
       </c>
       <c r="B8" t="n">
-        <v>131407</v>
+        <v>162171</v>
       </c>
       <c r="C8" t="s">
         <v>102</v>
@@ -6120,7 +6120,7 @@
         <v>26225</v>
       </c>
       <c r="B9" t="n">
-        <v>131408</v>
+        <v>162172</v>
       </c>
       <c r="C9" t="s">
         <v>112</v>
@@ -6185,7 +6185,7 @@
         <v>26225</v>
       </c>
       <c r="B10" t="n">
-        <v>131409</v>
+        <v>162173</v>
       </c>
       <c r="C10" t="s">
         <v>119</v>
@@ -6315,7 +6315,7 @@
         <v>26225</v>
       </c>
       <c r="B12" t="n">
-        <v>131410</v>
+        <v>162174</v>
       </c>
       <c r="C12" t="s">
         <v>134</v>
@@ -6449,7 +6449,7 @@
         <v>26225</v>
       </c>
       <c r="B14" t="n">
-        <v>131411</v>
+        <v>162175</v>
       </c>
       <c r="C14" t="s">
         <v>152</v>
@@ -6514,7 +6514,7 @@
         <v>26225</v>
       </c>
       <c r="B15" t="n">
-        <v>131412</v>
+        <v>162176</v>
       </c>
       <c r="C15" t="s">
         <v>159</v>
@@ -6583,7 +6583,7 @@
         <v>26225</v>
       </c>
       <c r="B16" t="n">
-        <v>131413</v>
+        <v>162177</v>
       </c>
       <c r="C16" t="s">
         <v>166</v>
@@ -6725,7 +6725,7 @@
         <v>26225</v>
       </c>
       <c r="B18" t="n">
-        <v>131414</v>
+        <v>162178</v>
       </c>
       <c r="C18" t="s">
         <v>183</v>
@@ -6855,7 +6855,7 @@
         <v>26225</v>
       </c>
       <c r="B20" t="n">
-        <v>131415</v>
+        <v>162179</v>
       </c>
       <c r="C20" t="s">
         <v>200</v>
@@ -6926,7 +6926,7 @@
         <v>26225</v>
       </c>
       <c r="B21" t="n">
-        <v>131416</v>
+        <v>162180</v>
       </c>
       <c r="C21" t="s">
         <v>208</v>
@@ -6997,7 +6997,7 @@
         <v>26225</v>
       </c>
       <c r="B22" t="n">
-        <v>131417</v>
+        <v>162181</v>
       </c>
       <c r="C22" t="s">
         <v>216</v>
@@ -7066,7 +7066,7 @@
         <v>26225</v>
       </c>
       <c r="B23" t="n">
-        <v>131418</v>
+        <v>162182</v>
       </c>
       <c r="C23" t="s">
         <v>223</v>
@@ -7137,7 +7137,7 @@
         <v>26225</v>
       </c>
       <c r="B24" t="n">
-        <v>131419</v>
+        <v>162183</v>
       </c>
       <c r="C24" t="s">
         <v>232</v>
@@ -7208,7 +7208,7 @@
         <v>26225</v>
       </c>
       <c r="B25" t="n">
-        <v>131420</v>
+        <v>162184</v>
       </c>
       <c r="C25" t="s">
         <v>240</v>
@@ -7279,7 +7279,7 @@
         <v>26225</v>
       </c>
       <c r="B26" t="n">
-        <v>131421</v>
+        <v>162185</v>
       </c>
       <c r="C26" t="s">
         <v>248</v>
@@ -7539,7 +7539,7 @@
         <v>26225</v>
       </c>
       <c r="B30" t="n">
-        <v>131422</v>
+        <v>162186</v>
       </c>
       <c r="C30" t="s">
         <v>279</v>
@@ -7610,7 +7610,7 @@
         <v>26225</v>
       </c>
       <c r="B31" t="n">
-        <v>131423</v>
+        <v>162187</v>
       </c>
       <c r="C31" t="s">
         <v>288</v>
@@ -7681,7 +7681,7 @@
         <v>26225</v>
       </c>
       <c r="B32" t="n">
-        <v>131424</v>
+        <v>162188</v>
       </c>
       <c r="C32" t="s">
         <v>296</v>
@@ -7750,7 +7750,7 @@
         <v>26225</v>
       </c>
       <c r="B33" t="n">
-        <v>131425</v>
+        <v>162189</v>
       </c>
       <c r="C33" t="s">
         <v>304</v>
@@ -7821,7 +7821,7 @@
         <v>26225</v>
       </c>
       <c r="B34" t="n">
-        <v>131426</v>
+        <v>162190</v>
       </c>
       <c r="C34" t="s">
         <v>312</v>
@@ -7886,7 +7886,7 @@
         <v>26225</v>
       </c>
       <c r="B35" t="n">
-        <v>131427</v>
+        <v>162191</v>
       </c>
       <c r="C35" t="s">
         <v>322</v>
@@ -7957,7 +7957,7 @@
         <v>26225</v>
       </c>
       <c r="B36" t="n">
-        <v>131428</v>
+        <v>162192</v>
       </c>
       <c r="C36" t="s">
         <v>330</v>
@@ -8022,7 +8022,7 @@
         <v>26225</v>
       </c>
       <c r="B37" t="n">
-        <v>131429</v>
+        <v>162193</v>
       </c>
       <c r="C37" t="s">
         <v>337</v>
@@ -8093,7 +8093,7 @@
         <v>26225</v>
       </c>
       <c r="B38" t="n">
-        <v>131430</v>
+        <v>162194</v>
       </c>
       <c r="C38" t="s">
         <v>344</v>
@@ -8158,7 +8158,7 @@
         <v>26225</v>
       </c>
       <c r="B39" t="n">
-        <v>131431</v>
+        <v>162195</v>
       </c>
       <c r="C39" t="s">
         <v>351</v>
@@ -8225,7 +8225,7 @@
         <v>26225</v>
       </c>
       <c r="B40" t="n">
-        <v>131432</v>
+        <v>162196</v>
       </c>
       <c r="C40" t="s">
         <v>359</v>
@@ -8286,7 +8286,7 @@
         <v>26225</v>
       </c>
       <c r="B41" t="n">
-        <v>131433</v>
+        <v>162197</v>
       </c>
       <c r="C41" t="s">
         <v>365</v>
@@ -8347,7 +8347,7 @@
         <v>26225</v>
       </c>
       <c r="B42" t="n">
-        <v>131434</v>
+        <v>162198</v>
       </c>
       <c r="C42" t="s">
         <v>372</v>
@@ -8414,7 +8414,7 @@
         <v>26225</v>
       </c>
       <c r="B43" t="n">
-        <v>131435</v>
+        <v>162199</v>
       </c>
       <c r="C43" t="s">
         <v>379</v>
@@ -8481,7 +8481,7 @@
         <v>26225</v>
       </c>
       <c r="B44" t="n">
-        <v>131436</v>
+        <v>162200</v>
       </c>
       <c r="C44" t="s">
         <v>386</v>
@@ -8733,7 +8733,7 @@
         <v>26225</v>
       </c>
       <c r="B48" t="n">
-        <v>131437</v>
+        <v>162201</v>
       </c>
       <c r="C48" t="s">
         <v>412</v>
@@ -8857,7 +8857,7 @@
         <v>26225</v>
       </c>
       <c r="B50" t="n">
-        <v>131438</v>
+        <v>162202</v>
       </c>
       <c r="C50" t="s">
         <v>424</v>
@@ -8924,7 +8924,7 @@
         <v>26225</v>
       </c>
       <c r="B51" t="n">
-        <v>131439</v>
+        <v>162203</v>
       </c>
       <c r="C51" t="s">
         <v>431</v>
@@ -9052,7 +9052,7 @@
         <v>26225</v>
       </c>
       <c r="B53" t="n">
-        <v>131440</v>
+        <v>162204</v>
       </c>
       <c r="C53" t="s">
         <v>445</v>
@@ -9192,7 +9192,7 @@
         <v>26225</v>
       </c>
       <c r="B55" t="n">
-        <v>131441</v>
+        <v>162205</v>
       </c>
       <c r="C55" t="s">
         <v>464</v>
@@ -9257,7 +9257,7 @@
         <v>26225</v>
       </c>
       <c r="B56" t="n">
-        <v>131442</v>
+        <v>162206</v>
       </c>
       <c r="C56" t="s">
         <v>471</v>
@@ -9462,7 +9462,7 @@
         <v>26225</v>
       </c>
       <c r="B59" t="n">
-        <v>131443</v>
+        <v>162207</v>
       </c>
       <c r="C59" t="s">
         <v>495</v>
@@ -9533,7 +9533,7 @@
         <v>26225</v>
       </c>
       <c r="B60" t="n">
-        <v>131444</v>
+        <v>162208</v>
       </c>
       <c r="C60" t="s">
         <v>505</v>
@@ -9604,7 +9604,7 @@
         <v>26225</v>
       </c>
       <c r="B61" t="n">
-        <v>131445</v>
+        <v>162209</v>
       </c>
       <c r="C61" t="s">
         <v>512</v>
@@ -9673,7 +9673,7 @@
         <v>26225</v>
       </c>
       <c r="B62" t="n">
-        <v>131446</v>
+        <v>162210</v>
       </c>
       <c r="C62" t="s">
         <v>520</v>
@@ -9744,7 +9744,7 @@
         <v>26225</v>
       </c>
       <c r="B63" t="n">
-        <v>131447</v>
+        <v>162211</v>
       </c>
       <c r="C63" t="s">
         <v>530</v>
@@ -9815,7 +9815,7 @@
         <v>26225</v>
       </c>
       <c r="B64" t="n">
-        <v>131448</v>
+        <v>162212</v>
       </c>
       <c r="C64" t="s">
         <v>539</v>
@@ -9886,7 +9886,7 @@
         <v>26225</v>
       </c>
       <c r="B65" t="n">
-        <v>131449</v>
+        <v>162213</v>
       </c>
       <c r="C65" t="s">
         <v>548</v>
@@ -9957,7 +9957,7 @@
         <v>26225</v>
       </c>
       <c r="B66" t="n">
-        <v>131450</v>
+        <v>162214</v>
       </c>
       <c r="C66" t="s">
         <v>558</v>
@@ -10030,7 +10030,7 @@
         <v>26225</v>
       </c>
       <c r="B67" t="n">
-        <v>131451</v>
+        <v>162215</v>
       </c>
       <c r="C67" t="s">
         <v>567</v>
@@ -10314,7 +10314,7 @@
         <v>26225</v>
       </c>
       <c r="B71" t="n">
-        <v>131452</v>
+        <v>162216</v>
       </c>
       <c r="C71" t="s">
         <v>604</v>
@@ -10385,7 +10385,7 @@
         <v>26225</v>
       </c>
       <c r="B72" t="n">
-        <v>131453</v>
+        <v>162217</v>
       </c>
       <c r="C72" t="s">
         <v>614</v>
@@ -10456,7 +10456,7 @@
         <v>26225</v>
       </c>
       <c r="B73" t="n">
-        <v>131454</v>
+        <v>162218</v>
       </c>
       <c r="C73" t="s">
         <v>623</v>
@@ -10527,7 +10527,7 @@
         <v>26225</v>
       </c>
       <c r="B74" t="n">
-        <v>131455</v>
+        <v>162219</v>
       </c>
       <c r="C74" t="s">
         <v>629</v>
@@ -10669,7 +10669,7 @@
         <v>26225</v>
       </c>
       <c r="B76" t="n">
-        <v>131456</v>
+        <v>162220</v>
       </c>
       <c r="C76" t="s">
         <v>644</v>
@@ -10740,7 +10740,7 @@
         <v>26225</v>
       </c>
       <c r="B77" t="n">
-        <v>131457</v>
+        <v>162221</v>
       </c>
       <c r="C77" t="s">
         <v>650</v>
@@ -10811,7 +10811,7 @@
         <v>26225</v>
       </c>
       <c r="B78" t="n">
-        <v>131458</v>
+        <v>162222</v>
       </c>
       <c r="C78" t="s">
         <v>659</v>
@@ -11030,7 +11030,7 @@
         <v>26225</v>
       </c>
       <c r="B81" t="n">
-        <v>131459</v>
+        <v>162223</v>
       </c>
       <c r="C81" t="s">
         <v>687</v>
@@ -11105,7 +11105,7 @@
         <v>26225</v>
       </c>
       <c r="B82" t="n">
-        <v>131460</v>
+        <v>162224</v>
       </c>
       <c r="C82" t="s">
         <v>697</v>
@@ -11180,7 +11180,7 @@
         <v>26225</v>
       </c>
       <c r="B83" t="n">
-        <v>131461</v>
+        <v>162225</v>
       </c>
       <c r="C83" t="s">
         <v>706</v>
@@ -11245,7 +11245,7 @@
         <v>26225</v>
       </c>
       <c r="B84" t="n">
-        <v>131462</v>
+        <v>162226</v>
       </c>
       <c r="C84" t="s">
         <v>716</v>
@@ -11320,7 +11320,7 @@
         <v>26225</v>
       </c>
       <c r="B85" t="n">
-        <v>131463</v>
+        <v>162227</v>
       </c>
       <c r="C85" t="s">
         <v>726</v>
@@ -11470,7 +11470,7 @@
         <v>26225</v>
       </c>
       <c r="B87" t="n">
-        <v>131464</v>
+        <v>162228</v>
       </c>
       <c r="C87" t="s">
         <v>745</v>
@@ -11545,7 +11545,7 @@
         <v>26225</v>
       </c>
       <c r="B88" t="n">
-        <v>131465</v>
+        <v>162229</v>
       </c>
       <c r="C88" t="s">
         <v>751</v>
@@ -11620,7 +11620,7 @@
         <v>26225</v>
       </c>
       <c r="B89" t="n">
-        <v>131466</v>
+        <v>162230</v>
       </c>
       <c r="C89" t="s">
         <v>758</v>
@@ -11695,7 +11695,7 @@
         <v>26225</v>
       </c>
       <c r="B90" t="n">
-        <v>131467</v>
+        <v>162231</v>
       </c>
       <c r="C90" t="s">
         <v>768</v>
@@ -11845,7 +11845,7 @@
         <v>26225</v>
       </c>
       <c r="B92" t="n">
-        <v>131468</v>
+        <v>162232</v>
       </c>
       <c r="C92" t="s">
         <v>783</v>
@@ -11920,7 +11920,7 @@
         <v>26225</v>
       </c>
       <c r="B93" t="n">
-        <v>131469</v>
+        <v>162233</v>
       </c>
       <c r="C93" t="s">
         <v>793</v>
@@ -12066,7 +12066,7 @@
         <v>26225</v>
       </c>
       <c r="B95" t="n">
-        <v>131470</v>
+        <v>162234</v>
       </c>
       <c r="C95" t="s">
         <v>809</v>
@@ -12141,7 +12141,7 @@
         <v>26225</v>
       </c>
       <c r="B96" t="n">
-        <v>131471</v>
+        <v>162235</v>
       </c>
       <c r="C96" t="s">
         <v>816</v>
@@ -12362,7 +12362,7 @@
         <v>26225</v>
       </c>
       <c r="B99" t="n">
-        <v>131472</v>
+        <v>162236</v>
       </c>
       <c r="C99" t="s">
         <v>842</v>
@@ -12433,7 +12433,7 @@
         <v>26225</v>
       </c>
       <c r="B100" t="n">
-        <v>131473</v>
+        <v>162237</v>
       </c>
       <c r="C100" t="s">
         <v>849</v>
@@ -12504,7 +12504,7 @@
         <v>26225</v>
       </c>
       <c r="B101" t="n">
-        <v>131474</v>
+        <v>162238</v>
       </c>
       <c r="C101" t="s">
         <v>855</v>
@@ -12654,7 +12654,7 @@
         <v>26225</v>
       </c>
       <c r="B103" t="n">
-        <v>131475</v>
+        <v>162239</v>
       </c>
       <c r="C103" t="s">
         <v>875</v>
@@ -12725,7 +12725,7 @@
         <v>26225</v>
       </c>
       <c r="B104" t="n">
-        <v>131476</v>
+        <v>162240</v>
       </c>
       <c r="C104" t="s">
         <v>883</v>
@@ -12875,7 +12875,7 @@
         <v>26225</v>
       </c>
       <c r="B106" t="n">
-        <v>131477</v>
+        <v>162241</v>
       </c>
       <c r="C106" t="s">
         <v>899</v>
@@ -12950,7 +12950,7 @@
         <v>26225</v>
       </c>
       <c r="B107" t="n">
-        <v>131478</v>
+        <v>162242</v>
       </c>
       <c r="C107" t="s">
         <v>908</v>
@@ -13025,7 +13025,7 @@
         <v>26225</v>
       </c>
       <c r="B108" t="n">
-        <v>131479</v>
+        <v>162243</v>
       </c>
       <c r="C108" t="s">
         <v>916</v>
@@ -13096,7 +13096,7 @@
         <v>26225</v>
       </c>
       <c r="B109" t="n">
-        <v>131480</v>
+        <v>162244</v>
       </c>
       <c r="C109" t="s">
         <v>923</v>
@@ -13167,7 +13167,7 @@
         <v>26225</v>
       </c>
       <c r="B110" t="n">
-        <v>131481</v>
+        <v>162245</v>
       </c>
       <c r="C110" t="s">
         <v>929</v>
@@ -13305,7 +13305,7 @@
         <v>26225</v>
       </c>
       <c r="B112" t="n">
-        <v>131482</v>
+        <v>162246</v>
       </c>
       <c r="C112" t="s">
         <v>942</v>
@@ -13376,7 +13376,7 @@
         <v>26225</v>
       </c>
       <c r="B113" t="n">
-        <v>131483</v>
+        <v>162247</v>
       </c>
       <c r="C113" t="s">
         <v>949</v>
@@ -13589,7 +13589,7 @@
         <v>26225</v>
       </c>
       <c r="B116" t="n">
-        <v>131484</v>
+        <v>162248</v>
       </c>
       <c r="C116" t="s">
         <v>970</v>
@@ -13731,7 +13731,7 @@
         <v>26225</v>
       </c>
       <c r="B118" t="n">
-        <v>131485</v>
+        <v>162249</v>
       </c>
       <c r="C118" t="s">
         <v>983</v>
@@ -13802,7 +13802,7 @@
         <v>26225</v>
       </c>
       <c r="B119" t="n">
-        <v>131486</v>
+        <v>162250</v>
       </c>
       <c r="C119" t="s">
         <v>991</v>
@@ -13877,7 +13877,7 @@
         <v>26225</v>
       </c>
       <c r="B120" t="n">
-        <v>131487</v>
+        <v>162251</v>
       </c>
       <c r="C120" t="s">
         <v>1001</v>
@@ -13952,7 +13952,7 @@
         <v>26225</v>
       </c>
       <c r="B121" t="n">
-        <v>131488</v>
+        <v>162252</v>
       </c>
       <c r="C121" t="s">
         <v>1010</v>
@@ -14019,7 +14019,7 @@
         <v>26225</v>
       </c>
       <c r="B122" t="n">
-        <v>131489</v>
+        <v>162253</v>
       </c>
       <c r="C122" t="s">
         <v>1015</v>
@@ -14094,7 +14094,7 @@
         <v>26225</v>
       </c>
       <c r="B123" t="n">
-        <v>131490</v>
+        <v>162254</v>
       </c>
       <c r="C123" t="s">
         <v>1022</v>
@@ -14169,7 +14169,7 @@
         <v>26225</v>
       </c>
       <c r="B124" t="n">
-        <v>131491</v>
+        <v>162255</v>
       </c>
       <c r="C124" t="s">
         <v>1030</v>
@@ -14240,7 +14240,7 @@
         <v>26225</v>
       </c>
       <c r="B125" t="n">
-        <v>131492</v>
+        <v>162256</v>
       </c>
       <c r="C125" t="s">
         <v>1038</v>
@@ -14311,7 +14311,7 @@
         <v>26225</v>
       </c>
       <c r="B126" t="n">
-        <v>131493</v>
+        <v>162257</v>
       </c>
       <c r="C126" t="s">
         <v>1044</v>
@@ -14378,7 +14378,7 @@
         <v>26225</v>
       </c>
       <c r="B127" t="n">
-        <v>131494</v>
+        <v>162258</v>
       </c>
       <c r="C127" t="s">
         <v>1049</v>
@@ -14449,7 +14449,7 @@
         <v>26225</v>
       </c>
       <c r="B128" t="n">
-        <v>131495</v>
+        <v>162259</v>
       </c>
       <c r="C128" t="s">
         <v>1055</v>
@@ -14520,7 +14520,7 @@
         <v>26225</v>
       </c>
       <c r="B129" t="n">
-        <v>131496</v>
+        <v>162260</v>
       </c>
       <c r="C129" t="s">
         <v>1060</v>
@@ -14591,7 +14591,7 @@
         <v>26225</v>
       </c>
       <c r="B130" t="n">
-        <v>131497</v>
+        <v>162261</v>
       </c>
       <c r="C130" t="s">
         <v>1067</v>
@@ -14733,7 +14733,7 @@
         <v>26225</v>
       </c>
       <c r="B132" t="n">
-        <v>131498</v>
+        <v>162262</v>
       </c>
       <c r="C132" t="s">
         <v>1080</v>
@@ -14804,7 +14804,7 @@
         <v>26225</v>
       </c>
       <c r="B133" t="n">
-        <v>131499</v>
+        <v>162263</v>
       </c>
       <c r="C133" t="s">
         <v>1087</v>
@@ -14946,7 +14946,7 @@
         <v>26225</v>
       </c>
       <c r="B135" t="n">
-        <v>131500</v>
+        <v>162264</v>
       </c>
       <c r="C135" t="s">
         <v>1103</v>
@@ -15088,7 +15088,7 @@
         <v>26225</v>
       </c>
       <c r="B137" t="n">
-        <v>131501</v>
+        <v>162265</v>
       </c>
       <c r="C137" t="s">
         <v>1118</v>
@@ -15230,7 +15230,7 @@
         <v>26225</v>
       </c>
       <c r="B139" t="n">
-        <v>131502</v>
+        <v>162266</v>
       </c>
       <c r="C139" t="s">
         <v>1132</v>
@@ -15370,7 +15370,7 @@
         <v>26225</v>
       </c>
       <c r="B141" t="n">
-        <v>131503</v>
+        <v>162267</v>
       </c>
       <c r="C141" t="s">
         <v>1146</v>
@@ -15445,7 +15445,7 @@
         <v>26225</v>
       </c>
       <c r="B142" t="n">
-        <v>131504</v>
+        <v>162268</v>
       </c>
       <c r="C142" t="s">
         <v>1154</v>
@@ -15520,7 +15520,7 @@
         <v>26225</v>
       </c>
       <c r="B143" t="n">
-        <v>131505</v>
+        <v>162269</v>
       </c>
       <c r="C143" t="s">
         <v>1164</v>
@@ -15591,7 +15591,7 @@
         <v>26225</v>
       </c>
       <c r="B144" t="n">
-        <v>131506</v>
+        <v>162270</v>
       </c>
       <c r="C144" t="s">
         <v>1174</v>
@@ -15662,7 +15662,7 @@
         <v>26225</v>
       </c>
       <c r="B145" t="n">
-        <v>131507</v>
+        <v>162271</v>
       </c>
       <c r="C145" t="s">
         <v>1183</v>
@@ -15733,7 +15733,7 @@
         <v>26225</v>
       </c>
       <c r="B146" t="n">
-        <v>131508</v>
+        <v>162272</v>
       </c>
       <c r="C146" t="s">
         <v>1190</v>
@@ -15800,7 +15800,7 @@
         <v>26225</v>
       </c>
       <c r="B147" t="n">
-        <v>131509</v>
+        <v>162273</v>
       </c>
       <c r="C147" t="s">
         <v>1197</v>
@@ -15871,7 +15871,7 @@
         <v>26225</v>
       </c>
       <c r="B148" t="n">
-        <v>131510</v>
+        <v>162274</v>
       </c>
       <c r="C148" t="s">
         <v>1204</v>
@@ -15946,7 +15946,7 @@
         <v>26225</v>
       </c>
       <c r="B149" t="n">
-        <v>131511</v>
+        <v>162275</v>
       </c>
       <c r="C149" t="s">
         <v>1214</v>
@@ -16017,7 +16017,7 @@
         <v>26225</v>
       </c>
       <c r="B150" t="n">
-        <v>131512</v>
+        <v>162276</v>
       </c>
       <c r="C150" t="s">
         <v>1223</v>
@@ -16159,7 +16159,7 @@
         <v>26225</v>
       </c>
       <c r="B152" t="n">
-        <v>131513</v>
+        <v>162277</v>
       </c>
       <c r="C152" t="s">
         <v>1238</v>
@@ -16230,7 +16230,7 @@
         <v>26225</v>
       </c>
       <c r="B153" t="n">
-        <v>131514</v>
+        <v>162278</v>
       </c>
       <c r="C153" t="s">
         <v>1245</v>
@@ -16301,7 +16301,7 @@
         <v>26225</v>
       </c>
       <c r="B154" t="n">
-        <v>131515</v>
+        <v>162279</v>
       </c>
       <c r="C154" t="s">
         <v>1251</v>
@@ -16372,7 +16372,7 @@
         <v>26225</v>
       </c>
       <c r="B155" t="n">
-        <v>131516</v>
+        <v>162280</v>
       </c>
       <c r="C155" t="s">
         <v>1258</v>
@@ -16443,7 +16443,7 @@
         <v>26225</v>
       </c>
       <c r="B156" t="n">
-        <v>131517</v>
+        <v>162281</v>
       </c>
       <c r="C156" t="s">
         <v>1265</v>
@@ -16514,7 +16514,7 @@
         <v>26225</v>
       </c>
       <c r="B157" t="n">
-        <v>131518</v>
+        <v>162282</v>
       </c>
       <c r="C157" t="s">
         <v>1271</v>
@@ -16585,7 +16585,7 @@
         <v>26225</v>
       </c>
       <c r="B158" t="n">
-        <v>131519</v>
+        <v>162283</v>
       </c>
       <c r="C158" t="s">
         <v>1277</v>
@@ -16656,7 +16656,7 @@
         <v>26225</v>
       </c>
       <c r="B159" t="n">
-        <v>131520</v>
+        <v>162284</v>
       </c>
       <c r="C159" t="s">
         <v>1283</v>
@@ -16727,7 +16727,7 @@
         <v>26225</v>
       </c>
       <c r="B160" t="n">
-        <v>131521</v>
+        <v>162285</v>
       </c>
       <c r="C160" t="s">
         <v>1288</v>
@@ -16798,7 +16798,7 @@
         <v>26225</v>
       </c>
       <c r="B161" t="n">
-        <v>131522</v>
+        <v>162286</v>
       </c>
       <c r="C161" t="s">
         <v>1295</v>
@@ -16869,7 +16869,7 @@
         <v>26225</v>
       </c>
       <c r="B162" t="n">
-        <v>131523</v>
+        <v>162287</v>
       </c>
       <c r="C162" t="s">
         <v>1301</v>
@@ -16940,7 +16940,7 @@
         <v>26225</v>
       </c>
       <c r="B163" t="n">
-        <v>131524</v>
+        <v>162288</v>
       </c>
       <c r="C163" t="s">
         <v>1307</v>
@@ -17015,7 +17015,7 @@
         <v>26225</v>
       </c>
       <c r="B164" t="n">
-        <v>131525</v>
+        <v>162289</v>
       </c>
       <c r="C164" t="s">
         <v>1315</v>
@@ -17086,7 +17086,7 @@
         <v>26225</v>
       </c>
       <c r="B165" t="n">
-        <v>131526</v>
+        <v>162290</v>
       </c>
       <c r="C165" t="s">
         <v>1322</v>
@@ -17161,7 +17161,7 @@
         <v>26225</v>
       </c>
       <c r="B166" t="n">
-        <v>131527</v>
+        <v>162291</v>
       </c>
       <c r="C166" t="s">
         <v>1332</v>
@@ -17236,7 +17236,7 @@
         <v>26225</v>
       </c>
       <c r="B167" t="n">
-        <v>131528</v>
+        <v>162292</v>
       </c>
       <c r="C167" t="s">
         <v>1338</v>
@@ -17303,7 +17303,7 @@
         <v>26225</v>
       </c>
       <c r="B168" t="n">
-        <v>131529</v>
+        <v>162293</v>
       </c>
       <c r="C168" t="s">
         <v>1344</v>
@@ -17378,7 +17378,7 @@
         <v>26225</v>
       </c>
       <c r="B169" t="n">
-        <v>131530</v>
+        <v>162294</v>
       </c>
       <c r="C169" t="s">
         <v>1351</v>
@@ -17453,7 +17453,7 @@
         <v>26225</v>
       </c>
       <c r="B170" t="n">
-        <v>131531</v>
+        <v>162295</v>
       </c>
       <c r="C170" t="s">
         <v>1358</v>
@@ -17524,7 +17524,7 @@
         <v>26225</v>
       </c>
       <c r="B171" t="n">
-        <v>131532</v>
+        <v>162296</v>
       </c>
       <c r="C171" t="s">
         <v>1366</v>
@@ -17595,7 +17595,7 @@
         <v>26225</v>
       </c>
       <c r="B172" t="n">
-        <v>131533</v>
+        <v>162297</v>
       </c>
       <c r="C172" t="s">
         <v>1373</v>
@@ -17666,7 +17666,7 @@
         <v>26225</v>
       </c>
       <c r="B173" t="n">
-        <v>131534</v>
+        <v>162298</v>
       </c>
       <c r="C173" t="s">
         <v>1380</v>
@@ -17737,7 +17737,7 @@
         <v>26225</v>
       </c>
       <c r="B174" t="n">
-        <v>131535</v>
+        <v>162299</v>
       </c>
       <c r="C174" t="s">
         <v>1387</v>
@@ -17808,7 +17808,7 @@
         <v>26225</v>
       </c>
       <c r="B175" t="n">
-        <v>131536</v>
+        <v>162300</v>
       </c>
       <c r="C175" t="s">
         <v>1395</v>
@@ -17879,7 +17879,7 @@
         <v>26225</v>
       </c>
       <c r="B176" t="n">
-        <v>131537</v>
+        <v>162301</v>
       </c>
       <c r="C176" t="s">
         <v>1402</v>
@@ -17950,7 +17950,7 @@
         <v>26225</v>
       </c>
       <c r="B177" t="n">
-        <v>131538</v>
+        <v>162302</v>
       </c>
       <c r="C177" t="s">
         <v>1409</v>
@@ -18021,7 +18021,7 @@
         <v>26225</v>
       </c>
       <c r="B178" t="n">
-        <v>131539</v>
+        <v>162303</v>
       </c>
       <c r="C178" t="s">
         <v>1415</v>
@@ -18092,7 +18092,7 @@
         <v>26225</v>
       </c>
       <c r="B179" t="n">
-        <v>131540</v>
+        <v>162304</v>
       </c>
       <c r="C179" t="s">
         <v>1421</v>
@@ -18163,7 +18163,7 @@
         <v>26225</v>
       </c>
       <c r="B180" t="n">
-        <v>131541</v>
+        <v>162305</v>
       </c>
       <c r="C180" t="s">
         <v>1428</v>
@@ -18234,7 +18234,7 @@
         <v>26225</v>
       </c>
       <c r="B181" t="n">
-        <v>131542</v>
+        <v>162306</v>
       </c>
       <c r="C181" t="s">
         <v>1434</v>
@@ -18305,7 +18305,7 @@
         <v>26225</v>
       </c>
       <c r="B182" t="n">
-        <v>131543</v>
+        <v>162307</v>
       </c>
       <c r="C182" t="s">
         <v>1440</v>
@@ -18376,7 +18376,7 @@
         <v>26225</v>
       </c>
       <c r="B183" t="n">
-        <v>131544</v>
+        <v>162308</v>
       </c>
       <c r="C183" t="s">
         <v>1446</v>
@@ -18447,7 +18447,7 @@
         <v>26225</v>
       </c>
       <c r="B184" t="n">
-        <v>131545</v>
+        <v>162309</v>
       </c>
       <c r="C184" t="s">
         <v>1451</v>
@@ -18516,7 +18516,7 @@
         <v>26225</v>
       </c>
       <c r="B185" t="n">
-        <v>131546</v>
+        <v>162310</v>
       </c>
       <c r="C185" t="s">
         <v>1457</v>
@@ -18587,7 +18587,7 @@
         <v>26225</v>
       </c>
       <c r="B186" t="n">
-        <v>131547</v>
+        <v>162311</v>
       </c>
       <c r="C186" t="s">
         <v>1464</v>
@@ -18658,7 +18658,7 @@
         <v>26225</v>
       </c>
       <c r="B187" t="n">
-        <v>131548</v>
+        <v>162312</v>
       </c>
       <c r="C187" t="s">
         <v>1470</v>
@@ -18729,7 +18729,7 @@
         <v>26225</v>
       </c>
       <c r="B188" t="n">
-        <v>131549</v>
+        <v>162313</v>
       </c>
       <c r="C188" t="s">
         <v>1477</v>
@@ -18800,7 +18800,7 @@
         <v>26225</v>
       </c>
       <c r="B189" t="n">
-        <v>131550</v>
+        <v>162314</v>
       </c>
       <c r="C189" t="s">
         <v>1483</v>
@@ -18871,7 +18871,7 @@
         <v>26225</v>
       </c>
       <c r="B190" t="n">
-        <v>131551</v>
+        <v>162315</v>
       </c>
       <c r="C190" t="s">
         <v>1489</v>
@@ -18942,7 +18942,7 @@
         <v>26225</v>
       </c>
       <c r="B191" t="n">
-        <v>131552</v>
+        <v>162316</v>
       </c>
       <c r="C191" t="s">
         <v>1495</v>
@@ -19013,7 +19013,7 @@
         <v>26225</v>
       </c>
       <c r="B192" t="n">
-        <v>131553</v>
+        <v>162317</v>
       </c>
       <c r="C192" t="s">
         <v>1503</v>
@@ -19084,7 +19084,7 @@
         <v>26225</v>
       </c>
       <c r="B193" t="n">
-        <v>131554</v>
+        <v>162318</v>
       </c>
       <c r="C193" t="s">
         <v>1509</v>
@@ -19155,7 +19155,7 @@
         <v>26225</v>
       </c>
       <c r="B194" t="n">
-        <v>131555</v>
+        <v>162319</v>
       </c>
       <c r="C194" t="s">
         <v>1514</v>
@@ -19226,7 +19226,7 @@
         <v>26225</v>
       </c>
       <c r="B195" t="n">
-        <v>131556</v>
+        <v>162320</v>
       </c>
       <c r="C195" t="s">
         <v>1521</v>
@@ -19297,7 +19297,7 @@
         <v>26225</v>
       </c>
       <c r="B196" t="n">
-        <v>131557</v>
+        <v>162321</v>
       </c>
       <c r="C196" t="s">
         <v>1527</v>
@@ -19368,7 +19368,7 @@
         <v>26225</v>
       </c>
       <c r="B197" t="n">
-        <v>131558</v>
+        <v>162322</v>
       </c>
       <c r="C197" t="s">
         <v>1533</v>
@@ -19439,7 +19439,7 @@
         <v>26225</v>
       </c>
       <c r="B198" t="n">
-        <v>131559</v>
+        <v>162323</v>
       </c>
       <c r="C198" t="s">
         <v>1539</v>
@@ -19510,7 +19510,7 @@
         <v>26225</v>
       </c>
       <c r="B199" t="n">
-        <v>131560</v>
+        <v>162324</v>
       </c>
       <c r="C199" t="s">
         <v>1545</v>
@@ -19581,7 +19581,7 @@
         <v>26225</v>
       </c>
       <c r="B200" t="n">
-        <v>131561</v>
+        <v>162325</v>
       </c>
       <c r="C200" t="s">
         <v>1551</v>
@@ -19652,7 +19652,7 @@
         <v>26225</v>
       </c>
       <c r="B201" t="n">
-        <v>131562</v>
+        <v>162326</v>
       </c>
       <c r="C201" t="s">
         <v>1559</v>
@@ -19798,7 +19798,7 @@
         <v>26225</v>
       </c>
       <c r="B203" t="n">
-        <v>131563</v>
+        <v>162327</v>
       </c>
       <c r="C203" t="s">
         <v>1576</v>
@@ -19869,7 +19869,7 @@
         <v>26225</v>
       </c>
       <c r="B204" t="n">
-        <v>131564</v>
+        <v>162328</v>
       </c>
       <c r="C204" t="s">
         <v>1583</v>
@@ -19940,7 +19940,7 @@
         <v>26225</v>
       </c>
       <c r="B205" t="n">
-        <v>131565</v>
+        <v>162329</v>
       </c>
       <c r="C205" t="s">
         <v>1591</v>
@@ -20001,7 +20001,7 @@
         <v>26225</v>
       </c>
       <c r="B206" t="n">
-        <v>131566</v>
+        <v>162330</v>
       </c>
       <c r="C206" t="s">
         <v>1600</v>
@@ -20072,7 +20072,7 @@
         <v>26225</v>
       </c>
       <c r="B207" t="n">
-        <v>131567</v>
+        <v>162331</v>
       </c>
       <c r="C207" t="s">
         <v>1608</v>
@@ -20212,7 +20212,7 @@
         <v>26225</v>
       </c>
       <c r="B209" t="n">
-        <v>131568</v>
+        <v>162332</v>
       </c>
       <c r="C209" t="s">
         <v>1623</v>
@@ -20283,7 +20283,7 @@
         <v>26225</v>
       </c>
       <c r="B210" t="n">
-        <v>131569</v>
+        <v>162333</v>
       </c>
       <c r="C210" t="s">
         <v>1631</v>
@@ -20350,7 +20350,7 @@
         <v>26225</v>
       </c>
       <c r="B211" t="n">
-        <v>131570</v>
+        <v>162334</v>
       </c>
       <c r="C211" t="s">
         <v>1637</v>
@@ -20484,7 +20484,7 @@
         <v>26225</v>
       </c>
       <c r="B213" t="n">
-        <v>131571</v>
+        <v>162335</v>
       </c>
       <c r="C213" t="s">
         <v>1650</v>
@@ -20549,7 +20549,7 @@
         <v>26225</v>
       </c>
       <c r="B214" t="n">
-        <v>131572</v>
+        <v>162336</v>
       </c>
       <c r="C214" t="s">
         <v>1656</v>
